--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Smith_Woodward/Arthur_Smith_Woodward.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Smith_Woodward/Arthur_Smith_Woodward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Smith Woodward est un paléontologue britannique, né le 23 mai 1864 et mort le 2 septembre 1944.
 Il est impliqué dans la supercherie de l'homme de Piltdown. Il reçoit la médaille Lyell en 1896 et la médaille linnéenne en 1940. Il préside la Linnean Society of London de 1919 à 1923.
